--- a/biology/Botanique/Urochloa/Urochloa.xlsx
+++ b/biology/Botanique/Urochloa/Urochloa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Urochloa est un genre de plantes monocotylédones de la famille des Poaceae, sous-famille des Panicoideae, à répartition pantropicale, qui comprend environ 120 espèces. Le nombre d'espèces rattachées à ce genre varie selon les auteurs, certains considérant que le genre Brachiaria (une centaine d'espèces) doit être inclus dans le genre Urochloa[2].
-Diverses espèces de ce genre sont utilisées comme plantes fourragères pour nourrir le bétail soit au pâturage, soit sous forme de fourrage récolté. D'autres espèces, parfois les mêmes,  sont considérées comme des mauvaises herbes des cultures, parfois envahissantes comme c'est le cas d'Urochloa mutica en Australie[3]. Ce sont aussi des plantes utiles pour lutter contre l'érosion des sols et protéger les rives des cours d'eau.
-Une espèce, Urochloa deflexa, est cultivée comme céréale mineure en Afrique occidentale[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Urochloa est un genre de plantes monocotylédones de la famille des Poaceae, sous-famille des Panicoideae, à répartition pantropicale, qui comprend environ 120 espèces. Le nombre d'espèces rattachées à ce genre varie selon les auteurs, certains considérant que le genre Brachiaria (une centaine d'espèces) doit être inclus dans le genre Urochloa.
+Diverses espèces de ce genre sont utilisées comme plantes fourragères pour nourrir le bétail soit au pâturage, soit sous forme de fourrage récolté. D'autres espèces, parfois les mêmes,  sont considérées comme des mauvaises herbes des cultures, parfois envahissantes comme c'est le cas d'Urochloa mutica en Australie. Ce sont aussi des plantes utiles pour lutter contre l'érosion des sols et protéger les rives des cours d'eau.
+Une espèce, Urochloa deflexa, est cultivée comme céréale mineure en Afrique occidentale.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List            (30 septembre 2017)[5] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (30 septembre 2017) :
 Urochloa brachyura (Hack.) Stapf
 Urochloa chennaveeraina (Basappa &amp; Muniy.) Ashalatha &amp; V.J. Nair
 Urochloa echinolaenoides Stapf
